--- a/DB/우당탕탕 말랑 엑셀.xlsx
+++ b/DB/우당탕탕 말랑 엑셀.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,135 @@
   </si>
   <si>
     <t>B02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일러스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수공예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제간식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려동물용품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제출파일유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해상도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색깔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_itcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM tbl_option
+WHERE op_itcode = I00001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +389,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,15 +676,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S25"/>
+  <dimension ref="B3:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
@@ -785,97 +923,304 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="1" t="s">
+    <row r="16" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F19" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
         <v>30</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
         <v>31</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F23" t="s">
-        <v>32</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F24" t="s">
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F25" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
